--- a/01Excel基础实操 (赠课)/【2】格式技巧：规范不同格式的数据.xlsx
+++ b/01Excel基础实操 (赠课)/【2】格式技巧：规范不同格式的数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\【赠课2】格式技巧：规范不同格式的数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjl\Github\NeteaseDAcourse\01Excel基础实操 (赠课)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD13EFB-7760-403E-988D-CA975ADD1234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E314B5-6A67-4CFA-A24C-00431113EAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2646" yWindow="642" windowWidth="16764" windowHeight="12318" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12种格式" sheetId="15" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="规范日期格式" sheetId="17" r:id="rId4"/>
     <sheet name="特殊&amp;自定义格式" sheetId="19" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>批量处理-分列法</t>
   </si>
@@ -101,10 +103,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>销量</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>OPPO</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -339,14 +337,74 @@
   <si>
     <t>220625197507211900</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量</t>
+  </si>
+  <si>
+    <t>=D20*100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=AVERAGE(L5:L20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>53050</t>
+  </si>
+  <si>
+    <t>98699</t>
+  </si>
+  <si>
+    <t>60904</t>
+  </si>
+  <si>
+    <t>51216</t>
+  </si>
+  <si>
+    <t>74579</t>
+  </si>
+  <si>
+    <t>24538</t>
+  </si>
+  <si>
+    <t>44369</t>
+  </si>
+  <si>
+    <t>65138</t>
+  </si>
+  <si>
+    <t>48845</t>
+  </si>
+  <si>
+    <t>64709</t>
+  </si>
+  <si>
+    <t>10767</t>
+  </si>
+  <si>
+    <t>57652</t>
+  </si>
+  <si>
+    <t>45832</t>
+  </si>
+  <si>
+    <t>70015</t>
+  </si>
+  <si>
+    <t>5866</t>
+  </si>
+  <si>
+    <t>66656</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="16">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -354,13 +412,15 @@
     <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="182" formatCode="[&gt;=90]&quot;优&quot;;[&gt;=75]&quot;良&quot;;&quot;差&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="185" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="187" formatCode="0.000%"/>
-    <numFmt numFmtId="188" formatCode="[DBNum2][$-804]General"/>
+    <numFmt numFmtId="183" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="184" formatCode="0.000%"/>
+    <numFmt numFmtId="185" formatCode="[DBNum2][$-804]General"/>
+    <numFmt numFmtId="186" formatCode="#&quot;千&quot;&quot;克&quot;"/>
+    <numFmt numFmtId="187" formatCode="0\.0,&quot;万&quot;"/>
+    <numFmt numFmtId="188" formatCode="000000"/>
+    <numFmt numFmtId="189" formatCode="00\-00\-00"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +438,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -548,6 +609,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -636,13 +705,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,42 +838,30 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="184" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="12" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="185" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,80 +880,60 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{288CFF21-6E42-4EED-94A4-5093D72A405C}"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFB8D9F"/>
     </mruColors>
@@ -917,7 +957,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C8EECE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1169,18 +1209,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.53125" defaultRowHeight="37.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="25.5546875" style="4"/>
+    <col min="1" max="1" width="40.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32.46484375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="25.53125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -1188,100 +1228,100 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="55">
         <v>2022</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="56">
         <v>-2022</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="41">
         <v>-2022</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="43">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="46">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="50">
+        <v>77</v>
+      </c>
+      <c r="E10" s="48">
         <f>SUM(B10:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="47">
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1298,254 +1338,472 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5546875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.53125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="24.77734375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="16.5546875" style="3"/>
+    <col min="1" max="2" width="24.796875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="16.53125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="B2" s="59">
+        <v>98699</v>
+      </c>
+      <c r="C2" s="49">
+        <v>0</v>
+      </c>
+      <c r="D2" s="49">
+        <v>0</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="59">
+        <v>60904</v>
+      </c>
+      <c r="C3" s="49">
+        <v>60904</v>
+      </c>
+      <c r="D3" s="49">
+        <v>0</v>
+      </c>
+      <c r="E3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="53">
-        <v>98699</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="L3" s="67">
+        <f>L5*10</f>
+        <v>986990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="53">
-        <v>60904</v>
-      </c>
-      <c r="C3" s="53">
-        <v>60904</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
+      <c r="B4" s="59">
+        <v>51216</v>
+      </c>
+      <c r="C4" s="49">
+        <v>51216</v>
+      </c>
+      <c r="D4" s="49">
+        <v>0</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="59">
+        <v>74579</v>
+      </c>
+      <c r="C5" s="49">
+        <v>74579</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="53">
-        <v>51216</v>
-      </c>
-      <c r="C4" s="53">
-        <v>51216</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="L5" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="67">
+        <f>L5+1</f>
+        <v>98700</v>
+      </c>
+      <c r="N5" s="67">
+        <f>L5*10</f>
+        <v>986990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="53">
-        <v>74579</v>
-      </c>
-      <c r="C5" s="53">
-        <v>74579</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="52" t="s">
+      <c r="B6" s="59">
+        <v>24538</v>
+      </c>
+      <c r="C6" s="49">
+        <v>24538</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="L6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="67">
+        <f t="shared" ref="M6:M20" si="0">L6+1</f>
+        <v>60905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="59">
+        <v>53050</v>
+      </c>
+      <c r="C7" s="49">
+        <v>53050</v>
+      </c>
+      <c r="D7" s="49">
+        <v>53050</v>
+      </c>
+      <c r="E7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="53">
-        <v>24538</v>
-      </c>
-      <c r="C6" s="53">
-        <v>24538</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="L7" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="67">
+        <f t="shared" si="0"/>
+        <v>51217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="53">
-        <v>53050</v>
-      </c>
-      <c r="C7" s="53">
-        <v>53050</v>
-      </c>
-      <c r="D7" s="53">
-        <v>53050</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-    </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="59">
+        <v>44369</v>
+      </c>
+      <c r="C8" s="49">
+        <v>44369</v>
+      </c>
+      <c r="D8" s="49">
+        <v>44369</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="L8" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="67">
+        <f t="shared" si="0"/>
+        <v>74580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="53">
-        <v>44369</v>
-      </c>
-      <c r="C8" s="53">
-        <v>44369</v>
-      </c>
-      <c r="D8" s="53">
-        <v>44369</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="59">
+        <v>65138</v>
+      </c>
+      <c r="C9" s="49">
+        <v>65138</v>
+      </c>
+      <c r="D9" s="49">
+        <v>65138</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="L9" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="67">
+        <f t="shared" si="0"/>
+        <v>24539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B10" s="59">
+        <v>48845</v>
+      </c>
+      <c r="C10" s="49">
+        <v>48845</v>
+      </c>
+      <c r="D10" s="49">
+        <v>48845</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="L10" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="67">
+        <f t="shared" si="0"/>
+        <v>53051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="59">
+        <v>64709</v>
+      </c>
+      <c r="C11" s="49">
+        <v>0</v>
+      </c>
+      <c r="D11" s="49">
+        <v>0</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="L11" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="67">
+        <f t="shared" si="0"/>
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="59">
+        <v>10767</v>
+      </c>
+      <c r="C12" s="49">
         <v>65138</v>
       </c>
-      <c r="C9" s="53">
-        <v>65138</v>
-      </c>
-      <c r="D9" s="53">
-        <v>65138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="53">
-        <v>48845</v>
-      </c>
-      <c r="C10" s="53">
-        <v>48845</v>
-      </c>
-      <c r="D10" s="53">
-        <v>48845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="53">
-        <v>64709</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-    </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="D12" s="49">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C12+1</f>
+        <v>65139</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="L12" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="67">
+        <f t="shared" si="0"/>
+        <v>65139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="53">
-        <v>10767</v>
-      </c>
-      <c r="C12" s="53">
-        <v>65138</v>
-      </c>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="59">
+        <v>57652</v>
+      </c>
+      <c r="C13" s="49">
+        <v>0</v>
+      </c>
+      <c r="D13" s="49">
+        <v>0</v>
+      </c>
+      <c r="E13" s="67">
+        <f>B12+1</f>
+        <v>10768</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="L13" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="67">
+        <f t="shared" si="0"/>
+        <v>48846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="53">
-        <v>57652</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="59">
+        <v>45832</v>
+      </c>
+      <c r="C14" s="49">
+        <v>0</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0</v>
+      </c>
+      <c r="E14" s="49">
+        <v>1</v>
+      </c>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="L14" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="67">
+        <f t="shared" si="0"/>
+        <v>64710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="53">
-        <v>45832</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="59">
+        <v>70015</v>
+      </c>
+      <c r="C15" s="49">
+        <v>0</v>
+      </c>
+      <c r="D15" s="49">
+        <v>0</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="L15" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="67">
+        <f t="shared" si="0"/>
+        <v>10768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="53">
-        <v>70015</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="59">
+        <v>5866</v>
+      </c>
+      <c r="C16" s="49">
+        <v>0</v>
+      </c>
+      <c r="D16" s="49">
+        <v>0</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="L16" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="67">
+        <f t="shared" si="0"/>
+        <v>57653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="53">
-        <v>5866</v>
-      </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="B17" s="59">
+        <v>66656</v>
+      </c>
+      <c r="C17" s="49">
+        <v>0</v>
+      </c>
+      <c r="D17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="L17" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="67">
+        <f t="shared" si="0"/>
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="49.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="53">
-        <v>66656</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-    </row>
-    <row r="18" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="11">
+      <c r="B18" s="58">
         <f>SUM(B2:B17)</f>
         <v>842835</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="L18" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="67">
+        <f t="shared" si="0"/>
+        <v>70016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="67">
+        <f t="shared" si="0"/>
+        <v>5867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D20" s="67">
+        <v>12144</v>
+      </c>
+      <c r="E20" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="67">
+        <f t="shared" si="0"/>
+        <v>66657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D21" s="67">
+        <f>D20*100</f>
+        <v>1214400</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1568,73 +1826,73 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="54.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.796875" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.46484375" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="50">
         <v>6.30123198704176E+17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="6" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="B7" s="14">
         <v>6.22285022122494E+16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="55"/>
+        <v>80</v>
+      </c>
+      <c r="B9" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1650,31 +1908,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="38.4" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="43.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="4" width="43.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.46484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17">
         <v>43952</v>
       </c>
@@ -1685,13 +1943,13 @@
         <f>B2-A2</f>
         <v>735</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="52">
         <v>44638</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="20">
         <v>44262</v>
@@ -1700,11 +1958,11 @@
         <f>B3-A3</f>
         <v>-376</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="53">
         <v>44638</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21"/>
       <c r="B4" s="18">
         <v>44638</v>
@@ -1714,7 +1972,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="22">
         <v>44687</v>
       </c>
@@ -1723,7 +1981,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23"/>
       <c r="B6" s="24">
         <v>44262</v>
@@ -1731,7 +1989,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
       <c r="B7" s="20">
         <v>44638</v>
@@ -1739,13 +1997,13 @@
       <c r="C7" s="23"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1760,106 +2018,106 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="43.8" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="34" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="21.796875" style="34" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="34" customWidth="1"/>
-    <col min="7" max="7" width="31.77734375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="23.86328125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="27.1328125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="31.796875" style="34" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" style="34" customWidth="1"/>
     <col min="9" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>71</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="31" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:8" s="31" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="32" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="32" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>77</v>
-      </c>
       <c r="B3" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>67</v>
-      </c>
       <c r="H3" s="36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="37">
         <v>3.56</v>
@@ -1883,9 +2141,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="37">
         <v>4.218</v>
@@ -1909,9 +2167,9 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="37">
         <v>4.9000000000000004</v>
@@ -1935,9 +2193,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="37">
         <v>1</v>
@@ -1961,112 +2219,149 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="38">
+        <v>54</v>
+      </c>
+      <c r="B8" s="60">
         <v>3.56</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="61">
         <v>159</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="63">
         <v>452123</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="64">
         <v>26</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="65">
         <v>103748</v>
       </c>
       <c r="G8" s="39">
         <v>77</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="66">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="38">
+        <v>56</v>
+      </c>
+      <c r="B9" s="60">
         <v>4.218</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="61">
         <v>156</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="63">
         <v>679000</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="64">
         <v>33</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="65">
         <v>263262</v>
       </c>
       <c r="G9" s="39">
         <v>92</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="66">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="38">
+        <v>58</v>
+      </c>
+      <c r="B10" s="60">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="61">
         <v>153</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="63">
         <v>43434232</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="64">
         <v>68</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="65">
         <v>732613</v>
       </c>
       <c r="G10" s="39">
         <v>50</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="66">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="33" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="38">
+        <v>60</v>
+      </c>
+      <c r="B11" s="60">
         <v>1</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="61">
         <v>170</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="63">
         <v>4232344</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="64">
         <v>186</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="65">
         <v>802817</v>
       </c>
       <c r="G11" s="39">
         <v>22</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="66">
         <v>8796</v>
       </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{B28F7865-8ABA-4A1D-B99A-9137308CC203}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'特殊&amp;自定义格式'!D8:D8</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'特殊&amp;自定义格式'!D9:D9</xm:f>
+              <xm:sqref>E9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'特殊&amp;自定义格式'!D10:D10</xm:f>
+              <xm:sqref>E10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'特殊&amp;自定义格式'!D11:D11</xm:f>
+              <xm:sqref>E11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>